--- a/Tabela_SLR4.xlsx
+++ b/Tabela_SLR4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="235">
   <si>
     <t>INICIO</t>
   </si>
@@ -251,9 +251,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
     <t>R17</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
   </si>
   <si>
     <t>E100</t>
@@ -287,7 +287,7 @@
     <t>E92</t>
   </si>
   <si>
-    <t>R35</t>
+    <t>R36</t>
   </si>
   <si>
     <t>E31</t>
@@ -299,16 +299,16 @@
     <t>E30</t>
   </si>
   <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R41</t>
+    <t>R35</t>
   </si>
   <si>
     <t>R42</t>
   </si>
   <si>
     <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
   </si>
   <si>
     <t>E33</t>
@@ -326,9 +326,6 @@
     <t>E94</t>
   </si>
   <si>
-    <t>R37</t>
-  </si>
-  <si>
     <t>R38</t>
   </si>
   <si>
@@ -338,7 +335,7 @@
     <t>R40</t>
   </si>
   <si>
-    <t>R44</t>
+    <t>R41</t>
   </si>
   <si>
     <t>R45</t>
@@ -377,7 +374,7 @@
     <t>E65</t>
   </si>
   <si>
-    <t>R25</t>
+    <t>R26</t>
   </si>
   <si>
     <t>E62</t>
@@ -386,10 +383,10 @@
     <t>E64</t>
   </si>
   <si>
-    <t>R26</t>
+    <t>R27</t>
   </si>
   <si>
-    <t>R27</t>
+    <t>R28</t>
   </si>
   <si>
     <t>E67</t>
@@ -422,22 +419,22 @@
     <t>E77</t>
   </si>
   <si>
-    <t>R30</t>
+    <t>R31</t>
   </si>
   <si>
     <t>E85</t>
   </si>
   <si>
-    <t>R31</t>
+    <t>R32</t>
   </si>
   <si>
-    <t>R32</t>
+    <t>R33</t>
   </si>
   <si>
     <t>E84</t>
   </si>
   <si>
-    <t>R33</t>
+    <t>R34</t>
   </si>
   <si>
     <t>E86</t>
@@ -455,37 +452,40 @@
     <t>R6</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
     <t>R24</t>
   </si>
   <si>
+    <t>R25</t>
+  </si>
+  <si>
     <t>E96</t>
   </si>
   <si>
-    <t>R28</t>
+    <t>R29</t>
   </si>
   <si>
     <t>E98</t>
   </si>
   <si>
-    <t>R29</t>
+    <t>R30</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>R36</t>
+    <t>R37</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
     <t>R12</t>
+  </si>
+  <si>
+    <t>R16</t>
   </si>
   <si>
     <t>FIRST</t>
@@ -1761,7 +1761,9 @@
       <c r="E6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="16" t="s">
         <v>59</v>
@@ -1803,8 +1805,12 @@
       <c r="AG6" s="10"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
+      <c r="AJ6" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="11">
         <v>12.0</v>
@@ -2471,7 +2477,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>74</v>
@@ -2556,8 +2562,12 @@
       </c>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
+      <c r="AJ13" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="11">
@@ -3966,7 +3976,9 @@
       <c r="AF26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
@@ -5405,64 +5417,64 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC42" s="22"/>
       <c r="AD42" s="22"/>
@@ -5502,64 +5514,64 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Q43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="S43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="U43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="V43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="W43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="X43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Y43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Z43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AA43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AB43" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AC43" s="22"/>
       <c r="AD43" s="22"/>
@@ -5599,64 +5611,64 @@
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB44" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC44" s="22"/>
       <c r="AD44" s="22"/>
@@ -5696,64 +5708,64 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC45" s="22"/>
       <c r="AD45" s="22"/>
@@ -5793,64 +5805,64 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="V46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="W46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="X46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Z46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AA46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AB46" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AC46" s="22"/>
       <c r="AD46" s="22"/>
@@ -5890,64 +5902,64 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC47" s="22"/>
       <c r="AD47" s="22"/>
@@ -5987,64 +5999,64 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB48" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC48" s="22"/>
       <c r="AD48" s="22"/>
@@ -6084,64 +6096,64 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB49" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC49" s="22"/>
       <c r="AD49" s="22"/>
@@ -6181,64 +6193,64 @@
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB50" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC50" s="22"/>
       <c r="AD50" s="22"/>
@@ -6278,64 +6290,64 @@
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB51" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
@@ -6377,7 +6389,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -6508,7 +6520,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -6569,7 +6581,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
@@ -6619,7 +6631,9 @@
       <c r="C56" s="8"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
+      <c r="F56" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G56" s="13"/>
       <c r="H56" s="16" t="s">
         <v>59</v>
@@ -6661,8 +6675,12 @@
       <c r="AG56" s="19"/>
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
-      <c r="AJ56" s="8"/>
-      <c r="AK56" s="8"/>
+      <c r="AJ56" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK56" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL56" s="8"/>
       <c r="AM56" s="16"/>
       <c r="AN56" s="11">
@@ -6701,100 +6719,100 @@
         <v>57.0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG57" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
@@ -6835,7 +6853,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
@@ -6907,13 +6925,13 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
       <c r="AB59" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC59" s="26"/>
       <c r="AD59" s="26"/>
       <c r="AE59" s="26"/>
       <c r="AF59" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG59" s="19"/>
       <c r="AH59" s="8"/>
@@ -6944,100 +6962,100 @@
         <v>60.0</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
@@ -7077,7 +7095,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -7127,7 +7145,9 @@
       <c r="C62" s="8"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G62" s="13"/>
       <c r="H62" s="16" t="s">
         <v>59</v>
@@ -7169,8 +7189,12 @@
       <c r="AG62" s="19"/>
       <c r="AH62" s="8"/>
       <c r="AI62" s="8"/>
-      <c r="AJ62" s="8"/>
-      <c r="AK62" s="8"/>
+      <c r="AJ62" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK62" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL62" s="8"/>
       <c r="AM62" s="16"/>
       <c r="AN62" s="11">
@@ -7222,7 +7246,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -7268,100 +7292,100 @@
         <v>64.0</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG64" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
@@ -7389,100 +7413,100 @@
         <v>65.0</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH65" s="8"/>
       <c r="AI65" s="8"/>
@@ -7519,7 +7543,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -7650,7 +7674,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
@@ -7711,7 +7735,7 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
@@ -7761,7 +7785,9 @@
       <c r="C70" s="8"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="F70" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G70" s="13"/>
       <c r="H70" s="16" t="s">
         <v>59</v>
@@ -7803,8 +7829,12 @@
       <c r="AG70" s="19"/>
       <c r="AH70" s="8"/>
       <c r="AI70" s="8"/>
-      <c r="AJ70" s="8"/>
-      <c r="AK70" s="8"/>
+      <c r="AJ70" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK70" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL70" s="8"/>
       <c r="AM70" s="16"/>
       <c r="AN70" s="11">
@@ -7847,7 +7877,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="25"/>
@@ -7922,10 +7952,10 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="W72" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="W72" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
@@ -7935,7 +7965,7 @@
       <c r="AC72" s="18"/>
       <c r="AD72" s="18"/>
       <c r="AE72" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF72" s="18"/>
       <c r="AG72" s="19"/>
@@ -7976,7 +8006,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -8092,7 +8122,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -8174,7 +8204,7 @@
       <c r="AB76" s="8"/>
       <c r="AC76" s="18"/>
       <c r="AD76" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE76" s="18"/>
       <c r="AF76" s="18"/>
@@ -8276,100 +8306,100 @@
         <v>78.0</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG78" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH78" s="8"/>
       <c r="AI78" s="8"/>
@@ -8475,7 +8505,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -8529,100 +8559,100 @@
         <v>81.0</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH81" s="8"/>
       <c r="AI81" s="8"/>
@@ -8650,100 +8680,100 @@
         <v>82.0</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
@@ -8793,7 +8823,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
       <c r="X83" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8830,100 +8860,100 @@
         <v>84.0</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH84" s="8"/>
       <c r="AI84" s="8"/>
@@ -8955,7 +8985,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -9030,10 +9060,10 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
       <c r="V86" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="W86" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="W86" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -9043,7 +9073,7 @@
       <c r="AC86" s="18"/>
       <c r="AD86" s="18"/>
       <c r="AE86" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF86" s="18"/>
       <c r="AG86" s="19"/>
@@ -9085,7 +9115,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -9146,7 +9176,7 @@
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
       <c r="N88" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
@@ -9196,7 +9226,9 @@
       <c r="C89" s="8"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="F89" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G89" s="8"/>
       <c r="H89" s="16" t="s">
         <v>59</v>
@@ -9238,8 +9270,12 @@
       <c r="AG89" s="19"/>
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
-      <c r="AJ89" s="8"/>
-      <c r="AK89" s="8"/>
+      <c r="AJ89" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="AK89" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AL89" s="8"/>
       <c r="AM89" s="16"/>
       <c r="AN89" s="11">
@@ -9278,100 +9314,100 @@
         <v>90.0</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG90" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH90" s="8"/>
       <c r="AI90" s="8"/>
@@ -9399,100 +9435,100 @@
         <v>91.0</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG91" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
@@ -9520,100 +9556,100 @@
         <v>92.0</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG92" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH92" s="8"/>
       <c r="AI92" s="8"/>
@@ -9641,100 +9677,100 @@
         <v>93.0</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG93" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
@@ -9762,100 +9798,100 @@
         <v>94.0</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG94" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
@@ -9896,7 +9932,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="18"/>
       <c r="O95" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
@@ -9942,100 +9978,100 @@
         <v>96.0</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
@@ -10076,7 +10112,7 @@
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
@@ -10121,101 +10157,101 @@
       <c r="A98" s="4">
         <v>98.0</v>
       </c>
-      <c r="B98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="I98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="M98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="N98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="R98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="S98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="T98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="U98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="V98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="W98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="X98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF98" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG98" s="27" t="s">
-        <v>153</v>
+      <c r="B98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="M98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="N98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="O98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="R98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="S98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="T98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="U98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="V98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="W98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="X98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF98" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG98" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="AH98" s="8"/>
       <c r="AI98" s="8"/>
@@ -10243,100 +10279,100 @@
         <v>99.0</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG99" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH99" s="8"/>
       <c r="AI99" s="8"/>
@@ -10363,101 +10399,101 @@
       <c r="A100" s="4">
         <v>100.0</v>
       </c>
-      <c r="B100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="M100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="N100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="O100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="P100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="R100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="S100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="T100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="U100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="V100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="W100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="X100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF100" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG100" s="27" t="s">
-        <v>155</v>
+      <c r="B100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="M100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="N100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="O100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="R100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="S100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="T100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="U100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="V100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="W100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="X100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF100" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG100" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="AH100" s="8"/>
       <c r="AI100" s="8"/>
@@ -10485,100 +10521,100 @@
         <v>101.0</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG101" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH101" s="8"/>
       <c r="AI101" s="8"/>
@@ -10606,100 +10642,100 @@
         <v>102.0</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG102" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH102" s="8"/>
       <c r="AI102" s="8"/>
@@ -10723,39 +10759,105 @@
       <c r="BA102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
-      <c r="AC103" s="9"/>
-      <c r="AD103" s="9"/>
-      <c r="AE103" s="9"/>
-      <c r="AF103" s="9"/>
-      <c r="AG103" s="10"/>
+      <c r="A103" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="U103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG103" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="AH103" s="8"/>
       <c r="AI103" s="8"/>
       <c r="AJ103" s="8"/>
@@ -60199,7 +60301,7 @@
         <v>16.0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="H10" s="31"/>
       <c r="K10" s="18"/>
@@ -60218,7 +60320,7 @@
         <v>17.0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="31"/>
       <c r="K11" s="18"/>
@@ -60237,7 +60339,7 @@
         <v>18.0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="31"/>
       <c r="K12" s="18"/>
@@ -60256,7 +60358,7 @@
         <v>19.0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="31"/>
       <c r="K13" s="18"/>
@@ -60275,7 +60377,7 @@
         <v>20.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="31"/>
       <c r="K14" s="27"/>
@@ -60294,7 +60396,7 @@
         <v>21.0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="31"/>
       <c r="K15" s="18"/>
@@ -60313,7 +60415,7 @@
         <v>26.0</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" s="31"/>
       <c r="K16" s="18"/>
@@ -60332,7 +60434,7 @@
         <v>28.0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H17" s="31"/>
       <c r="K17" s="18"/>
@@ -60351,7 +60453,7 @@
         <v>29.0</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H18" s="32"/>
       <c r="K18" s="18"/>
@@ -60370,7 +60472,7 @@
         <v>30.0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="32"/>
       <c r="K19" s="18"/>
@@ -60389,7 +60491,7 @@
         <v>31.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="32"/>
       <c r="K20" s="18"/>
@@ -60408,7 +60510,7 @@
         <v>38.0</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="H21" s="31"/>
       <c r="K21" s="18"/>
@@ -60427,7 +60529,7 @@
         <v>39.0</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="31"/>
       <c r="K22" s="18"/>
@@ -60446,7 +60548,7 @@
         <v>40.0</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="31"/>
       <c r="K23" s="18"/>
@@ -60456,7 +60558,7 @@
         <v>41.0</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="31"/>
       <c r="K24" s="18"/>
@@ -60582,7 +60684,7 @@
         <v>57.0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" s="31"/>
       <c r="K35" s="18"/>
@@ -60594,7 +60696,7 @@
         <v>60.0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="H36" s="32"/>
       <c r="K36" s="18"/>
@@ -60610,7 +60712,7 @@
         <v>64.0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H37" s="32"/>
       <c r="K37" s="18"/>
@@ -60622,7 +60724,7 @@
         <v>65.0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H38" s="32"/>
       <c r="K38" s="18"/>
@@ -60638,7 +60740,7 @@
         <v>78.0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H39" s="31"/>
       <c r="K39" s="18"/>
@@ -60650,7 +60752,7 @@
         <v>81.0</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H40" s="31"/>
       <c r="K40" s="18"/>
@@ -60666,7 +60768,7 @@
         <v>82.0</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H41" s="31"/>
       <c r="K41" s="18"/>
@@ -60678,7 +60780,7 @@
         <v>84.0</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H42" s="31"/>
       <c r="K42" s="18"/>
@@ -60694,7 +60796,7 @@
         <v>90.0</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="31"/>
       <c r="K43" s="18"/>
@@ -60706,7 +60808,7 @@
         <v>91.0</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="32"/>
       <c r="K44" s="18"/>
@@ -60722,7 +60824,7 @@
         <v>92.0</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="H45" s="31"/>
       <c r="K45" s="18"/>
@@ -60734,7 +60836,7 @@
         <v>93.0</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H46" s="31"/>
       <c r="K46" s="18"/>
@@ -60750,7 +60852,7 @@
         <v>94.0</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H47" s="31"/>
       <c r="K47" s="18"/>
@@ -60762,7 +60864,7 @@
         <v>96.0</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="H48" s="31"/>
     </row>
@@ -60777,7 +60879,7 @@
         <v>98.0</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H49" s="31"/>
     </row>
@@ -60788,7 +60890,7 @@
         <v>99.0</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H50" s="32"/>
     </row>
@@ -60803,7 +60905,7 @@
         <v>100.0</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="H51" s="31"/>
     </row>
@@ -60838,7 +60940,7 @@
         <v>101.0</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
@@ -60852,7 +60954,7 @@
         <v>102.0</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56">
